--- a/ImportStudent/ImportCompanySampleMain.xlsx
+++ b/ImportStudent/ImportCompanySampleMain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\InternGuide\ImportStudent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E09436-9209-4380-8382-8386D30F6D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161C3077-0ADF-4D07-9E5B-E4630B1C40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3135" yWindow="2790" windowWidth="15375" windowHeight="7815" xr2:uid="{7F092854-9E7A-4DD5-8FA8-12D179B61DBC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>companyname</t>
   </si>
@@ -75,10 +75,16 @@
     <t>Excellent</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>das</t>
+    <t>awdawdawd</t>
+  </si>
+  <si>
+    <t>awdawdawdawdadw</t>
+  </si>
+  <si>
+    <t>wewewewqd</t>
+  </si>
+  <si>
+    <t>vcverv</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,10 +492,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2">
-        <v>213</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -512,10 +518,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3">
-        <v>23123</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>

--- a/ImportStudent/ImportCompanySampleMain.xlsx
+++ b/ImportStudent/ImportCompanySampleMain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\InternGuide\ImportStudent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161C3077-0ADF-4D07-9E5B-E4630B1C40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40540E0-CF96-463B-BAD8-3C4C20B95A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="2790" windowWidth="15375" windowHeight="7815" xr2:uid="{7F092854-9E7A-4DD5-8FA8-12D179B61DBC}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7815" xr2:uid="{7F092854-9E7A-4DD5-8FA8-12D179B61DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,16 +75,16 @@
     <t>Excellent</t>
   </si>
   <si>
-    <t>awdawdawd</t>
-  </si>
-  <si>
-    <t>awdawdawdawdadw</t>
-  </si>
-  <si>
-    <t>wewewewqd</t>
-  </si>
-  <si>
-    <t>vcverv</t>
+    <t>sad12</t>
+  </si>
+  <si>
+    <t>sad13</t>
+  </si>
+  <si>
+    <t>awdawdsx</t>
+  </si>
+  <si>
+    <t>fsv ssa</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,10 +492,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>

--- a/ImportStudent/ImportCompanySampleMain.xlsx
+++ b/ImportStudent/ImportCompanySampleMain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\InternGuide\ImportStudent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40540E0-CF96-463B-BAD8-3C4C20B95A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D58588-305A-4E48-8CF1-9478E1D4C25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7815" xr2:uid="{7F092854-9E7A-4DD5-8FA8-12D179B61DBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7F092854-9E7A-4DD5-8FA8-12D179B61DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,16 +75,16 @@
     <t>Excellent</t>
   </si>
   <si>
-    <t>sad12</t>
-  </si>
-  <si>
-    <t>sad13</t>
-  </si>
-  <si>
     <t>awdawdsx</t>
   </si>
   <si>
     <t>fsv ssa</t>
+  </si>
+  <si>
+    <t>QSsq</t>
+  </si>
+  <si>
+    <t>QSqsQS</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,10 +492,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
